--- a/data/SkillsManagement_TestData.xlsx
+++ b/data/SkillsManagement_TestData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Account" sheetId="4" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="23">
   <si>
     <t>Employee</t>
   </si>
@@ -57,13 +57,34 @@
     <t>Requirement Analysis</t>
   </si>
   <si>
-    <t>SelectedCategory</t>
-  </si>
-  <si>
     <t>Software Engineering Knowledge</t>
   </si>
   <si>
-    <t>Parent Category</t>
+    <t>CreateCategory</t>
+  </si>
+  <si>
+    <t>Category Type</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Communication</t>
+  </si>
+  <si>
+    <t>Skills Domain</t>
+  </si>
+  <si>
+    <t>DeleteCategory</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Skill Domain</t>
+  </si>
+  <si>
+    <t>EditCategory</t>
+  </si>
+  <si>
+    <t>Test</t>
   </si>
 </sst>
 </file>
@@ -132,13 +153,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -552,10 +576,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,11 +588,13 @@
     <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>8</v>
@@ -576,18 +602,82 @@
       <c r="C1" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D1" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E3" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D3" s="1" t="s">
+      <c r="C5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E6" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E9" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/data/SkillsManagement_TestData.xlsx
+++ b/data/SkillsManagement_TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Account" sheetId="4" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="28">
   <si>
     <t>Employee</t>
   </si>
@@ -85,6 +85,21 @@
   </si>
   <si>
     <t>Test</t>
+  </si>
+  <si>
+    <t>CreateSkill</t>
+  </si>
+  <si>
+    <t>EditSkill</t>
+  </si>
+  <si>
+    <t>Skill Domain</t>
+  </si>
+  <si>
+    <t>Verbal</t>
+  </si>
+  <si>
+    <t>Non-verbal</t>
   </si>
 </sst>
 </file>
@@ -531,10 +546,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -543,9 +558,10 @@
     <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
@@ -556,7 +572,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>11</v>
       </c>
@@ -564,9 +580,65 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D3" s="1" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E7" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E11" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -576,10 +648,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -620,63 +692,63 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
+    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D6" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E6" s="5" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E7" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
+    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D10" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E9" s="5" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E11" s="5" t="s">
         <v>21</v>
       </c>
     </row>

--- a/data/SkillsManagement_TestData.xlsx
+++ b/data/SkillsManagement_TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Account" sheetId="4" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="26">
   <si>
     <t>Employee</t>
   </si>
@@ -72,13 +72,7 @@
     <t>Communication</t>
   </si>
   <si>
-    <t>Skills Domain</t>
-  </si>
-  <si>
     <t>DeleteCategory</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Skill Domain</t>
   </si>
   <si>
     <t>EditCategory</t>
@@ -548,7 +542,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -587,13 +581,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>16</v>
@@ -601,7 +595,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>17</v>
@@ -610,18 +604,18 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E7" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>16</v>
@@ -629,7 +623,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>17</v>
@@ -638,7 +632,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E11" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -650,8 +644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -683,7 +677,7 @@
         <v>17</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D2" s="2"/>
     </row>
@@ -694,7 +688,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>8</v>
@@ -711,7 +705,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>13</v>
@@ -719,12 +713,12 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E7" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>8</v>
@@ -738,10 +732,10 @@
     </row>
     <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>13</v>
@@ -749,7 +743,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E11" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/data/SkillsManagement_TestData.xlsx
+++ b/data/SkillsManagement_TestData.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Account" sheetId="4" r:id="rId1"/>
     <sheet name="Skill" sheetId="5" r:id="rId2"/>
     <sheet name="Category" sheetId="6" r:id="rId3"/>
+    <sheet name="Employee" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="29">
   <si>
     <t>Employee</t>
   </si>
@@ -48,18 +49,12 @@
     <t>Domain</t>
   </si>
   <si>
-    <t>Advanced</t>
-  </si>
-  <si>
     <t>Adobe Illustrator</t>
   </si>
   <si>
     <t>Requirement Analysis</t>
   </si>
   <si>
-    <t>Software Engineering Knowledge</t>
-  </si>
-  <si>
     <t>CreateCategory</t>
   </si>
   <si>
@@ -94,6 +89,21 @@
   </si>
   <si>
     <t>Non-verbal</t>
+  </si>
+  <si>
+    <t>Android</t>
+  </si>
+  <si>
+    <t>Mobile Development</t>
+  </si>
+  <si>
+    <t>Parent Category</t>
+  </si>
+  <si>
+    <t>SelectedEmployee</t>
+  </si>
+  <si>
+    <t>Anh- Pham Thi Quynh Anh</t>
   </si>
 </sst>
 </file>
@@ -543,7 +553,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -568,10 +578,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -581,58 +591,58 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E7" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E11" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -644,8 +654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -660,90 +670,129 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E3" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E7" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E11" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
